--- a/data/Subset1_WithDialogActs/Ladder problem 6_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 6_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
